--- a/Lecture_4/var2.xlsx
+++ b/Lecture_4/var2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="20480" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="17620" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -87,12 +87,21 @@
   </si>
   <si>
     <t xml:space="preserve">Kevin </t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>CI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -241,36 +250,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,31 +633,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="11" max="12" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -581,6 +669,9 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -632,7 +723,7 @@
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -644,7 +735,7 @@
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -852,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -878,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -904,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -930,75 +1021,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <f>SUM(B11:B13)</f>
         <v>1.833</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <f>SUM(C11:C13)</f>
         <v>3.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f>SUM(D11:D13)</f>
         <v>6</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <f>SUM(H11:H13)</f>
         <v>3.5</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <f>SUM(I11:I13)</f>
         <v>6</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <f>SUM(J11:J13)</f>
         <v>1.833</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <f>SUM(B17:B19)</f>
         <v>1.75</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <f>SUM(C17:C19)</f>
         <v>5.3330000000000002</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <f>SUM(D17:D19)</f>
         <v>6</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f>SUM(H17:H19)</f>
         <v>1.75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <f>SUM(I17:I19)</f>
         <v>1.833</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <f>SUM(J17:J19)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
@@ -1033,94 +1146,121 @@
         <v>0.54555373704309873</v>
       </c>
       <c r="C26" s="4">
-        <f>C11/D$22</f>
+        <f t="shared" ref="B26:D28" si="0">C11/D$22</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="D26" s="4">
-        <f>D11/E$22</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="E26">
+        <f>SUM(B26:D26)/3</f>
+        <v>0.53899410282389004</v>
+      </c>
       <c r="G26" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>H11/H$22</f>
+        <f t="shared" ref="H26:J28" si="1">H11/H$22</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="I26" s="4">
-        <f>I11/I$22</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J26" s="4">
-        <f>J11/J$22</f>
+        <f t="shared" si="1"/>
         <v>0.27277686852154936</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f>SUM(H26:J26)/3</f>
+        <v>0.29727482918972281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="4">
-        <f>B12/C$22</f>
+        <f t="shared" si="0"/>
         <v>0.27277686852154936</v>
       </c>
       <c r="C27" s="4">
-        <f>C12/D$22</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="D27" s="4">
-        <f>D12/E$22</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="E27">
+        <f>SUM(B27:D27)/3</f>
+        <v>0.29727482918972276</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="4">
-        <f>H12/H$22</f>
+        <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="I27" s="4">
-        <f>I12/I$22</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J27" s="4">
-        <f>J12/J$22</f>
+        <f t="shared" si="1"/>
         <v>0.18166939443535191</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f>SUM(H27:J27)/3</f>
+        <v>0.16373106798638715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="4">
-        <f>B13/C$22</f>
+        <f t="shared" si="0"/>
         <v>0.18166939443535191</v>
       </c>
       <c r="C28" s="4">
-        <f>C13/D$22</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D28" s="4">
-        <f>D13/E$22</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="E28">
+        <f>SUM(B28:D28)/3</f>
+        <v>0.16373106798638715</v>
+      </c>
       <c r="G28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="4">
-        <f>H13/H$22</f>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="I28" s="4">
-        <f>I13/I$22</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="J28" s="4">
-        <f>J13/J$22</f>
+        <f t="shared" si="1"/>
         <v>0.54555373704309873</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <f>SUM(H28:J28)/3</f>
+        <v>0.53899410282389004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="B29">
         <f>SUM(B26:B28)</f>
         <v>1</v>
@@ -1129,8 +1269,15 @@
         <f>SUM(C26:C28)</f>
         <v>1</v>
       </c>
-      <c r="D29" s="9">
-        <v>1</v>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <f>SUM(E26:E28)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="H29">
         <f>SUM(H26:H28)</f>
@@ -1140,12 +1287,16 @@
         <f>SUM(I26:I28)</f>
         <v>1</v>
       </c>
-      <c r="J29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="15">
+        <f>SUM(K26:K28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1171,103 +1322,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4">
-        <f>B17/C$23</f>
+        <f t="shared" ref="B32:D34" si="2">B17/C$23</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="C32" s="4">
-        <f>C17/D$23</f>
+        <f t="shared" si="2"/>
         <v>0.75004687792987057</v>
       </c>
       <c r="D32" s="4">
-        <f>D17/E$23</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="E32">
+        <f>SUM(B32:D32)/3</f>
+        <v>0.55160292756392504</v>
+      </c>
       <c r="G32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>H17/H$23</f>
+        <f t="shared" ref="H32:J34" si="3">H17/H$23</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="I32" s="4">
-        <f>I17/I$23</f>
+        <f t="shared" si="3"/>
         <v>0.27277686852154936</v>
       </c>
       <c r="J32" s="4">
-        <f>J17/J$23</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f>SUM(H32:J32)/3</f>
+        <v>0.44806847998337362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="4">
-        <f>B18/C$23</f>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="C33" s="4">
-        <f>C18/D$23</f>
+        <f t="shared" si="2"/>
         <v>0.18751171948246764</v>
       </c>
       <c r="D33" s="4">
-        <f>D18/E$23</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
+      <c r="E33">
+        <f>SUM(B33:D33)/3</f>
+        <v>0.27678962077987018</v>
+      </c>
       <c r="G33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="4">
-        <f>H18/H$23</f>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="I33" s="4">
-        <f>I18/I$23</f>
+        <f t="shared" si="3"/>
         <v>0.54555373704309873</v>
       </c>
       <c r="J33" s="4">
-        <f>J18/J$23</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f>SUM(H33:J33)/3</f>
+        <v>0.40208934091912818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="4">
-        <f>B19/C$23</f>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="C34" s="4">
-        <f>C19/D$23</f>
+        <f t="shared" si="2"/>
         <v>6.2441402587661732E-2</v>
       </c>
       <c r="D34" s="4">
-        <f>D19/E$23</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="E34">
+        <f>SUM(B34:D34)/3</f>
+        <v>0.1716074516562047</v>
+      </c>
       <c r="G34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="4">
-        <f>H19/H$23</f>
+        <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="I34" s="4">
-        <f>I19/I$23</f>
+        <f t="shared" si="3"/>
         <v>0.18166939443535191</v>
       </c>
       <c r="J34" s="4">
-        <f>J19/J$23</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f>SUM(H34:J34)/3</f>
+        <v>0.14984217909749825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="B35">
         <f>SUM(B32:B34)</f>
         <v>0.99999999999999989</v>
@@ -1276,8 +1454,15 @@
         <f>SUM(C32:C34)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D35" s="9">
-        <v>1</v>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15">
+        <f>SUM(E32:E34)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="H35">
         <f>SUM(H32:H34)</f>
@@ -1287,11 +1472,18 @@
         <f>SUM(I32:I34)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="K35" s="15">
+        <f>SUM(K32:K34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1527,7 @@
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1551,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1575,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>1</v>
@@ -1393,7 +1585,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,15 +1594,15 @@
         <v>0.24330657522146881</v>
       </c>
       <c r="E43" s="1">
-        <f>C38*$D$3+I38*$D$4</f>
+        <f t="shared" ref="D43:E45" si="4">C38*$D$3+I38*$D$4</f>
         <v>0.18095238095238095</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="7">
         <f>SUM(D43:E43)</f>
         <v>0.42425895617384979</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1419,29 +1611,34 @@
         <v>8.3558049515496308E-2</v>
       </c>
       <c r="E44" s="1">
-        <f>C39*$D$3+I39*$D$4</f>
+        <f t="shared" si="4"/>
         <v>9.0476190476190474E-2</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="8">
         <f>SUM(D44:E44)</f>
         <v>0.17403423999168677</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="1">
-        <f>B40*$D$3+H40*$D$4</f>
+        <f t="shared" si="4"/>
         <v>0.10646870859636817</v>
       </c>
       <c r="E45" s="1">
-        <f>C40*$D$3+I40*$D$4</f>
+        <f t="shared" si="4"/>
         <v>0.29523809523809524</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="9">
         <f>SUM(D45:E45)</f>
         <v>0.40170680383446344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1449,5 +1646,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Lecture_4/var2.xlsx
+++ b/Lecture_4/var2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alina/ITMO/DMM/Lecture_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abizhuma\Documents\Code\DMM\Lecture_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="17620" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="137" yWindow="463" windowWidth="17623" windowHeight="16577" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="24">
   <si>
     <t>A</t>
   </si>
@@ -93,12 +93,18 @@
   </si>
   <si>
     <t>CI</t>
+  </si>
+  <si>
+    <t>eigenv</t>
+  </si>
+  <si>
+    <t>quadratic matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -146,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +174,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +313,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -307,13 +325,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -365,6 +385,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -633,34 +656,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.35546875" customWidth="1"/>
+    <col min="7" max="9" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -674,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -693,7 +724,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -712,8 +743,8 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -726,20 +757,20 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -757,25 +788,25 @@
         <f>C7/SUM($C$7:$C$8)</f>
         <v>0.24981245311327835</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <f>H7/SUM($H$7:$H$8)</f>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <f>L7/SUM($L$7:$L$8)</f>
         <v>0.8</v>
       </c>
-      <c r="K7">
-        <f>I7/SUM($I$7:$I$8)</f>
+      <c r="O7">
+        <f>M7/SUM($M$7:$M$8)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -793,26 +824,26 @@
         <f>C8/SUM($C$7:$C$8)</f>
         <v>0.75018754688672173</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="4">
+      <c r="L8" s="4">
         <v>0.25</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <f>H8/SUM($H$7:$H$8)</f>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>L8/SUM($L$7:$L$8)</f>
         <v>0.2</v>
       </c>
-      <c r="K8">
-        <f>I8/SUM($I$7:$I$8)</f>
+      <c r="O8">
+        <f>M8/SUM($M$7:$M$8)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -825,20 +856,38 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -851,20 +900,56 @@
       <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="E11">
+        <f t="array" ref="E11:G13">MMULT(B11:D13,B11:D13)</f>
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F11">
+        <v>5.5</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f>SUM(E11:G11)</f>
+        <v>18.499000000000002</v>
+      </c>
+      <c r="I11" s="17">
+        <f>H11/$H$14</f>
+        <v>0.54017987502190035</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="N11" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="array" ref="O11:Q13">MMULT(L11:N13,L11:N13)</f>
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>5.5</v>
+      </c>
+      <c r="Q11">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="R11">
+        <f>SUM(O11:Q11)</f>
+        <v>10.166</v>
+      </c>
+      <c r="S11" s="17">
+        <f>R11/$R$14</f>
+        <v>0.2968521871167436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -877,20 +962,54 @@
       <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="E12">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5.5</v>
+      </c>
+      <c r="H12">
+        <f>SUM(E12:G12)</f>
+        <v>10.166</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" ref="I12:I13" si="0">H12/$H$14</f>
+        <v>0.29685218711674355</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
         <v>0.5</v>
       </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="P12">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.91599999999999993</v>
+      </c>
+      <c r="R12">
+        <f>SUM(O12:Q12)</f>
+        <v>5.5809999999999995</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" ref="S12:S13" si="1">R12/$R$14</f>
+        <v>0.16296793786135608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -903,21 +1022,73 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="E13">
+        <v>0.91599999999999993</v>
+      </c>
+      <c r="F13">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="G13">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="H13">
+        <f>SUM(E13:G13)</f>
+        <v>5.5809999999999995</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16296793786135605</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="4">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>5.5</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="R13">
+        <f>SUM(O13:Q13)</f>
+        <v>18.498999999999999</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="1"/>
+        <v>0.54017987502190046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <f>SUM(H11:H13)</f>
+        <v>34.246000000000002</v>
+      </c>
+      <c r="I14" s="17">
+        <f>SUM(I11:I13)</f>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>SUM(R11:R13)</f>
+        <v>34.245999999999995</v>
+      </c>
+      <c r="S14" s="17">
+        <f>SUM(S11:S13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -930,20 +1101,38 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -956,20 +1145,56 @@
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17">
+        <f t="array" ref="E17:G19">MMULT(B17:D19,B17:D19)</f>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>8.6660000000000004</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f>SUM(E17:G17)</f>
+        <v>27.666</v>
+      </c>
+      <c r="I17" s="17">
+        <f>H17/$H$20</f>
+        <v>0.60257115320740751</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
         <v>0.5</v>
       </c>
-      <c r="J17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="4">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f t="array" ref="O17:Q19">MMULT(L17:N19,L17:N19)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P17">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>9.5</v>
+      </c>
+      <c r="R17">
+        <f>SUM(O17:Q17)</f>
+        <v>14.082000000000001</v>
+      </c>
+      <c r="S17" s="17">
+        <f>R17/$R$20</f>
+        <v>0.46113794514940648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -982,20 +1207,54 @@
       <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <f>SUM(E18:G18)</f>
+        <v>11.499000000000001</v>
+      </c>
+      <c r="I18" s="17">
+        <f>H18/$H$20</f>
+        <v>0.25045057799219184</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="4">
         <v>0.5</v>
       </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1.75</v>
+      </c>
+      <c r="P18">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <f>SUM(O18:Q18)</f>
+        <v>11.999000000000001</v>
+      </c>
+      <c r="S18" s="17">
+        <f>R18/$R$20</f>
+        <v>0.39292672943102741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1008,23 +1267,73 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="E19">
+        <v>1.08325</v>
+      </c>
+      <c r="F19">
+        <v>2.6660000000000004</v>
+      </c>
+      <c r="G19">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="H19">
+        <f>SUM(E19:G19)</f>
+        <v>6.7482500000000005</v>
+      </c>
+      <c r="I19" s="17">
+        <f>H19/$H$20</f>
+        <v>0.14697826880040077</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4">
         <v>0.25</v>
       </c>
-      <c r="I19" s="4">
+      <c r="M19" s="4">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Q19">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="R19">
+        <f>SUM(O19:Q19)</f>
+        <v>4.4565000000000001</v>
+      </c>
+      <c r="S19" s="17">
+        <f>R19/$R$20</f>
+        <v>0.14593532541956611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f>SUM(H17:H19)</f>
+        <v>45.913249999999998</v>
+      </c>
+      <c r="I20" s="17">
+        <f>SUM(I17:I19)</f>
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <f>SUM(R17:R19)</f>
+        <v>30.537500000000001</v>
+      </c>
+      <c r="S20" s="17">
+        <f>SUM(S17:S19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -1035,18 +1344,22 @@
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1062,23 +1375,27 @@
         <f>SUM(D11:D13)</f>
         <v>6</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="K22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="1">
-        <f>SUM(H11:H13)</f>
+      <c r="L22" s="1">
+        <f>SUM(L11:L13)</f>
         <v>3.5</v>
       </c>
-      <c r="I22" s="1">
-        <f>SUM(I11:I13)</f>
+      <c r="M22" s="1">
+        <f>SUM(M11:M13)</f>
         <v>6</v>
       </c>
-      <c r="J22" s="1">
-        <f>SUM(J11:J13)</f>
+      <c r="N22" s="1">
+        <f>SUM(N11:N13)</f>
         <v>1.833</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1094,24 +1411,28 @@
         <f>SUM(D17:D19)</f>
         <v>6</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="1">
-        <f>SUM(H17:H19)</f>
+      <c r="L23" s="1">
+        <f>SUM(L17:L19)</f>
         <v>1.75</v>
       </c>
-      <c r="I23" s="1">
-        <f>SUM(I17:I19)</f>
+      <c r="M23" s="1">
+        <f>SUM(M17:M19)</f>
         <v>1.833</v>
       </c>
-      <c r="J23" s="1">
-        <f>SUM(J17:J19)</f>
+      <c r="N23" s="1">
+        <f>SUM(N17:N19)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="25" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1124,20 +1445,20 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
@@ -1146,119 +1467,152 @@
         <v>0.54555373704309873</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="B26:D28" si="0">C11/D$22</f>
+        <f t="shared" ref="B26:D28" si="2">C11/D$22</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="16">
         <f>SUM(B26:D26)/3</f>
         <v>0.53899410282389004</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26">
+        <f>E26-I11</f>
+        <v>-1.1857721980103042E-3</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" ref="H26:J28" si="1">H11/H$22</f>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:N28" si="3">L11/L$22</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="1"/>
+      <c r="M26" s="4">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J26" s="4">
-        <f t="shared" si="1"/>
+      <c r="N26" s="4">
+        <f t="shared" si="3"/>
         <v>0.27277686852154936</v>
       </c>
-      <c r="K26">
-        <f>SUM(H26:J26)/3</f>
+      <c r="O26" s="16">
+        <f>SUM(L26:N26)/3</f>
         <v>0.29727482918972281</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f>O26-S11</f>
+        <v>4.2264207297920686E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.27277686852154936</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="16">
         <f>SUM(B27:D27)/3</f>
         <v>0.29727482918972276</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="1"/>
+      <c r="F27">
+        <f t="shared" ref="F27:F34" si="4">E27-I12</f>
+        <v>4.2264207297920686E-4</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="1"/>
+      <c r="M27" s="4">
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J27" s="4">
-        <f t="shared" si="1"/>
+      <c r="N27" s="4">
+        <f t="shared" si="3"/>
         <v>0.18166939443535191</v>
       </c>
-      <c r="K27">
-        <f>SUM(H27:J27)/3</f>
+      <c r="O27" s="16">
+        <f>SUM(L27:N27)/3</f>
         <v>0.16373106798638715</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" ref="P27:P35" si="5">O27-S12</f>
+        <v>7.6313012503106958E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.18166939443535191</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="16">
         <f>SUM(B28:D28)/3</f>
         <v>0.16373106798638715</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="1"/>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>7.6313012503109734E-4</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="3"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="1"/>
+      <c r="M28" s="4">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" si="1"/>
+      <c r="N28" s="4">
+        <f t="shared" si="3"/>
         <v>0.54555373704309873</v>
       </c>
-      <c r="K28">
-        <f>SUM(H28:J28)/3</f>
+      <c r="O28" s="16">
+        <f>SUM(L28:N28)/3</f>
         <v>0.53899410282389004</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>-1.1857721980104152E-3</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B29">
@@ -1272,31 +1626,53 @@
       <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <f>SUM(E26:E28)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="K29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H29">
-        <f>SUM(H26:H28)</f>
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <f>SUM(I26:I28)</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1</v>
-      </c>
-      <c r="K29" s="15">
-        <f>SUM(K26:K28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f>SUM(L26:L28)</f>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f>SUM(M26:M28)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="12">
+        <f>SUM(O26:O28)</f>
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="R30">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S30">
+        <v>0.25</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1309,141 +1685,183 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" ref="B32:D34" si="2">B17/C$23</f>
+        <f t="shared" ref="B32:D34" si="6">B17/C$23</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.75004687792987057</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="16">
         <f>SUM(B32:D32)/3</f>
         <v>0.55160292756392504</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32">
+        <f>E32-I17</f>
+        <v>-5.0968225643482468E-2</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
-        <f t="shared" ref="H32:J34" si="3">H17/H$23</f>
+      <c r="L32" s="4">
+        <f t="shared" ref="L32:N34" si="7">L17/L$23</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="3"/>
+      <c r="M32" s="4">
+        <f t="shared" si="7"/>
         <v>0.27277686852154936</v>
       </c>
-      <c r="J32" s="4">
-        <f t="shared" si="3"/>
+      <c r="N32" s="4">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="K32">
-        <f>SUM(H32:J32)/3</f>
+      <c r="O32" s="16">
+        <f>SUM(L32:N32)/3</f>
         <v>0.44806847998337362</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f>O32-S17</f>
+        <v>-1.3069465166032856E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18751171948246764</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="16">
         <f>SUM(B33:D33)/3</f>
         <v>0.27678962077987018</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="3"/>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>2.6339042787678346E-2</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="3"/>
+      <c r="M33" s="4">
+        <f t="shared" si="7"/>
         <v>0.54555373704309873</v>
       </c>
-      <c r="J33" s="4">
-        <f t="shared" si="3"/>
+      <c r="N33" s="4">
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
-      <c r="K33">
-        <f>SUM(H33:J33)/3</f>
+      <c r="O33" s="16">
+        <f>SUM(L33:N33)/3</f>
         <v>0.40208934091912818</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f>O33-S18</f>
+        <v>9.1626114881007692E-3</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0.5</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.2441402587661732E-2</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="16">
         <f>SUM(B34:D34)/3</f>
         <v>0.1716074516562047</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="3"/>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>2.4629182855803927E-2</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" si="3"/>
+      <c r="M34" s="4">
+        <f t="shared" si="7"/>
         <v>0.18166939443535191</v>
       </c>
-      <c r="J34" s="4">
-        <f t="shared" si="3"/>
+      <c r="N34" s="4">
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
-      <c r="K34">
-        <f>SUM(H34:J34)/3</f>
+      <c r="O34" s="16">
+        <f>SUM(L34:N34)/3</f>
         <v>0.14984217909749825</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="P34">
+        <f>O34-S19</f>
+        <v>3.9068536779321428E-3</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B35">
@@ -1457,33 +1875,46 @@
       <c r="D35" s="6">
         <v>1</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <f>SUM(E32:E34)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="K35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H35">
-        <f>SUM(H32:H34)</f>
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <f>SUM(I32:I34)</f>
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15">
-        <f>SUM(K32:K34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <f>SUM(L32:L34)</f>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f>SUM(M32:M34)</f>
+        <v>1</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="12">
+        <f>SUM(O32:O34)</f>
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S35">
+        <v>0.25</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,17 +1924,35 @@
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <f t="array" ref="R37:T39">MMULT(R28:T30,R33:T35)</f>
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="S37">
+        <v>1.75</v>
+      </c>
+      <c r="T37">
+        <v>8</v>
+      </c>
+      <c r="U37">
+        <f>SUM(R37:T37)</f>
+        <v>12.749000000000001</v>
+      </c>
+      <c r="V37">
+        <f>U37/$U$40</f>
+        <v>0.31942373943000313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,22 +1961,39 @@
         <v>0.13638843426077468</v>
       </c>
       <c r="C38" s="1">
-        <f>H26*$D$8</f>
+        <f>L26*$D$8</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="1">
-        <f>B32*$J$7</f>
+      <c r="L38" s="1">
+        <f>B32*$N$7</f>
         <v>0.45714285714285713</v>
       </c>
-      <c r="I38" s="1">
-        <f>H32*$J$8</f>
+      <c r="M38" s="1">
+        <f>L32*$N$8</f>
         <v>0.11428571428571428</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>5.3319999999999999</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>14</v>
+      </c>
+      <c r="U38">
+        <f>SUM(R38:T38)</f>
+        <v>22.332000000000001</v>
+      </c>
+      <c r="V38">
+        <f>U38/$U$40</f>
+        <v>0.55952395865956783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1536,22 +2002,39 @@
         <v>6.8194217130387341E-2</v>
       </c>
       <c r="C39" s="1">
-        <f>H27*$D$8</f>
+        <f>L27*$D$8</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1">
-        <f>B33*$J$7</f>
+      <c r="K39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1">
+        <f>B33*$N$7</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="I39" s="1">
-        <f>H33*$J$8</f>
+      <c r="M39" s="1">
+        <f>L33*$N$8</f>
         <v>5.7142857142857141E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="S39">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="T39">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="U39">
+        <f>SUM(R39:T39)</f>
+        <v>4.8315000000000001</v>
+      </c>
+      <c r="V39">
+        <f>U39/$U$40</f>
+        <v>0.12105230191042907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1560,22 +2043,30 @@
         <v>4.5417348608837976E-2</v>
       </c>
       <c r="C40" s="1">
-        <f>H28*$D$8</f>
+        <f>L28*$D$8</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="1">
-        <f>B34*$J$7</f>
+      <c r="K40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1">
+        <f>B34*$N$7</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="I40" s="1">
-        <f>H34*$J$8</f>
+      <c r="M40" s="1">
+        <f>L34*$N$8</f>
         <v>2.8571428571428571E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="U40">
+        <f>SUM(U37:U39)</f>
+        <v>39.912500000000001</v>
+      </c>
+      <c r="V40">
+        <f>SUM(V37:V39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>1</v>
@@ -1584,66 +2075,78 @@
         <v>2</v>
       </c>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <f>B38*$D$3+H38*$D$4</f>
+        <f>B38*$D$3+L38*$D$4</f>
         <v>0.24330657522146881</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ref="D43:E45" si="4">C38*$D$3+I38*$D$4</f>
+        <f>C38*$D$3+M38*$D$4</f>
         <v>0.18095238095238095</v>
       </c>
       <c r="F43" s="7">
         <f>SUM(D43:E43)</f>
         <v>0.42425895617384979</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1">
-        <f>B39*$D$3+H39*$D$4</f>
+        <f>B39*$D$3+L39*$D$4</f>
         <v>8.3558049515496308E-2</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="4"/>
+        <f>C39*$D$3+M39*$D$4</f>
         <v>9.0476190476190474E-2</v>
       </c>
       <c r="F44" s="8">
         <f>SUM(D44:E44)</f>
         <v>0.17403423999168677</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="4"/>
+        <f>B40*$D$3+L40*$D$4</f>
         <v>0.10646870859636817</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="4"/>
+        <f>C40*$D$3+M40*$D$4</f>
         <v>0.29523809523809524</v>
       </c>
       <c r="F45" s="9">
         <f>SUM(D45:E45)</f>
         <v>0.40170680383446344</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
